--- a/2025f/CSER_schedule_25F.xlsx
+++ b/2025f/CSER_schedule_25F.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swithin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB6A77C-32DC-284F-8A24-2BC7C2819D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5FBCD6-CA2A-C141-B17E-515578321BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20120" yWindow="2220" windowWidth="14440" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="680" windowWidth="28900" windowHeight="18660" xr2:uid="{D630E352-AC92-4690-8407-890D2E3A3108}"/>
   </bookViews>
   <sheets>
-    <sheet name="CSER 2025 Tentative Program" sheetId="1" r:id="rId1"/>
+    <sheet name="Program" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>Time</t>
   </si>
@@ -28,98 +44,290 @@
     <t>Session</t>
   </si>
   <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Talk Title / Details</t>
+  </si>
+  <si>
     <t>8:30 - 8:40</t>
   </si>
   <si>
     <t>Opening Session</t>
   </si>
   <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Welcome &amp; Introduction</t>
+  </si>
+  <si>
     <t>8:40 - 9:30</t>
   </si>
   <si>
+    <t>Keynote Talk</t>
+  </si>
+  <si>
+    <t>Dr. Shiva Nejati</t>
+  </si>
+  <si>
+    <t>Toward Trustworthy AI Coding Assistants (40 min talk + 10 min Q&amp;A)</t>
+  </si>
+  <si>
     <t>9:30 - 10:00</t>
   </si>
   <si>
+    <t>New Faculty Talk</t>
+  </si>
+  <si>
     <t>10:00 - 10:30</t>
   </si>
   <si>
     <t>Coffee Break</t>
   </si>
   <si>
-    <t>10:30 - 12:00</t>
+    <t>10:30 - 11:00</t>
+  </si>
+  <si>
+    <t>Faculty Talk 1</t>
+  </si>
+  <si>
+    <t>11:00 - 11:30</t>
+  </si>
+  <si>
+    <t>Faculty Talk 2</t>
+  </si>
+  <si>
+    <t>11:30 - 12:00</t>
+  </si>
+  <si>
+    <t>Faculty Talk 3</t>
+  </si>
+  <si>
+    <t>12:00 - 13:00</t>
   </si>
   <si>
     <t>Lunch &amp; Posters</t>
   </si>
   <si>
-    <t>Student Talks</t>
+    <t>Poster Session</t>
+  </si>
+  <si>
+    <t>14:30 - 15:00</t>
+  </si>
+  <si>
+    <t>Panel Discussion &amp; Awards</t>
+  </si>
+  <si>
+    <t>Panelists: Yuan Tian, Peter Rigby, Fatemeh Fard, Jeremy Bradbury Moderators: Dr. Song Wang, Dr. Gias Uddin</t>
+  </si>
+  <si>
+    <t>“Agentic AI for Software Engineering”</t>
+  </si>
+  <si>
+    <t>16:10 - 16:30</t>
   </si>
   <si>
     <t>Break</t>
   </si>
   <si>
+    <t>16:30 - 18:00</t>
+  </si>
+  <si>
     <t>Keynote Talk (Joint with CASCON)</t>
   </si>
   <si>
-    <t>12:00 - 13:00</t>
-  </si>
-  <si>
-    <t>13:00 - 14:30</t>
-  </si>
-  <si>
-    <t>14:30 - 15:00</t>
-  </si>
-  <si>
-    <t>15:00 - 16:10</t>
-  </si>
-  <si>
-    <t>16:10 - 16:30</t>
-  </si>
-  <si>
-    <t>16:30 - 18:00</t>
-  </si>
-  <si>
     <t>18:00 - 20:00</t>
   </si>
   <si>
     <t>Reception (Joint with CASCON)</t>
   </si>
   <si>
-    <t>New Faculty Talk</t>
-  </si>
-  <si>
-    <t>Faculty Talks</t>
-  </si>
-  <si>
-    <t>Keynote Talk - Dr. Shiva Nejati</t>
-  </si>
-  <si>
-    <t>Panelists: Yuan Tian, Peter Rigby, Fatemeh Fard, Jeremy Bradbury
-Moderators: Dr. Song Wang, Dr. Gias Uddin
-Poster Award Announcements</t>
-  </si>
-  <si>
-    <t>Toward Trustworthy AI Coding Assistants (40 min talk + 10 min Q&amp;A)</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Panel Discussion &amp; Awards - 
-"Agentic AI for Software Engineering"</t>
-  </si>
-  <si>
-    <t>3 invited talks (30 min each)</t>
-  </si>
-  <si>
-    <t>6 student talks (15 min each)</t>
+    <t>Networking Reception</t>
+  </si>
+  <si>
+    <t>Zhou Yang</t>
+  </si>
+  <si>
+    <t>Advancing Software with Trusted and Sustainable Intelligence (20 min talk + 10 min q/a)</t>
+  </si>
+  <si>
+    <t>Ronnie de Souza Santos</t>
+  </si>
+  <si>
+    <t>Glaucia Melo</t>
+  </si>
+  <si>
+    <t>Zhenhao Li</t>
+  </si>
+  <si>
+    <t>Soude Ghari</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 1</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 2</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 3</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 4</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 5</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 6</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 7</t>
+  </si>
+  <si>
+    <t>Fairness Testing as a Quality Attribute in AI-Enabled Software</t>
+  </si>
+  <si>
+    <t>Empirical Studies Using LLMs to Assess Code Quality</t>
+  </si>
+  <si>
+    <t>Defects4Log: Benchmarking LLMs for Logging Code Defect Detection and Reasoning</t>
+  </si>
+  <si>
+    <t>From Benchmarking to Prediction: Machine Learning Solutions for Optimizing Apache Spark Deployments</t>
+  </si>
+  <si>
+    <t>Prashanti Priya Angara</t>
+  </si>
+  <si>
+    <t>University of Victoria</t>
+  </si>
+  <si>
+    <t>SCOOP: A Quantum-Computing Framework for Constrained Combinatorial Optimization</t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t>Mingfei Cheng</t>
+  </si>
+  <si>
+    <t>Behavior-Guided Automated Testing for Autonomous Driving Systems</t>
+  </si>
+  <si>
+    <t>Felipe Rivera</t>
+  </si>
+  <si>
+    <t>Toward Autonomic Digital Twin Orhestration and Management Systems</t>
+  </si>
+  <si>
+    <t>Jerin Yasmin</t>
+  </si>
+  <si>
+    <t>Queen's Univeristy</t>
+  </si>
+  <si>
+    <t>Software Dependencies 2.0: An Empirical Study of Reuse and Integration of Pre-Trained Models in Open-Source Projects</t>
+  </si>
+  <si>
+    <t>Shayan Noei</t>
+  </si>
+  <si>
+    <t>An Empirical Landscape of Code Refactoring: From Developer Practices to AI Automation</t>
+  </si>
+  <si>
+    <t>Elmira Onagh</t>
+  </si>
+  <si>
+    <t>Good Enough over Optimal: A Longitudinal Case Study on Software Release Planning in Digital Health</t>
+  </si>
+  <si>
+    <t>Mahsa Panahandeh</t>
+  </si>
+  <si>
+    <t>From Data to Reasoning: Towards Intelligent Root-Cause Analysis in Cloud Systems</t>
+  </si>
+  <si>
+    <t>Robyn Elliott</t>
+  </si>
+  <si>
+    <t>Evaluating LLM-Generated Commit Message Adoption in Open-Source Software Projects</t>
+  </si>
+  <si>
+    <t>13:00 - 13:10</t>
+  </si>
+  <si>
+    <t>13:10 - 13:20</t>
+  </si>
+  <si>
+    <t>13:20 - 13:30</t>
+  </si>
+  <si>
+    <t>13:30 - 13:40</t>
+  </si>
+  <si>
+    <t>13:50 - 14:00</t>
+  </si>
+  <si>
+    <t>14:00 - 14:10</t>
+  </si>
+  <si>
+    <t>13:40 - 13:50</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 8</t>
+  </si>
+  <si>
+    <t>Student &amp; Postdoc Talk 9</t>
+  </si>
+  <si>
+    <t>14:10 - 14:20</t>
+  </si>
+  <si>
+    <t>14:20 - 14:30</t>
+  </si>
+  <si>
+    <t>Jie M. Zhang</t>
+  </si>
+  <si>
+    <t>Beyond Correctness in LLM-Generated Code</t>
+  </si>
+  <si>
+    <t>15:00 - 16:00</t>
+  </si>
+  <si>
+    <t>16:00 - 16:10</t>
+  </si>
+  <si>
+    <t>Award Ceremony</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>University of Ottawa</t>
+  </si>
+  <si>
+    <t>University of Alberta</t>
+  </si>
+  <si>
+    <t>University of Calgary</t>
+  </si>
+  <si>
+    <t>Toronto Metropolitan University</t>
+  </si>
+  <si>
+    <t>Singapore Management University</t>
+  </si>
+  <si>
+    <t>King's College London</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,11 +336,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -143,41 +358,44 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor rgb="FFF4B084"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFBDD7EE"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor rgb="FFC6E0B4"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,16 +410,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -209,35 +427,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8AD8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -250,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Celestial">
   <a:themeElements>
-    <a:clrScheme name="Green Yellow">
+    <a:clrScheme name="Yellow">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,39 +487,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="455F51"/>
+        <a:srgbClr val="39302A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E2DFCC"/>
+        <a:srgbClr val="E5DEDB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="99CB38"/>
+        <a:srgbClr val="FFCA08"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="63A537"/>
+        <a:srgbClr val="F8931D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="37A76F"/>
+        <a:srgbClr val="CE8D3E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="44C1A3"/>
+        <a:srgbClr val="EC7016"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4EB3CF"/>
+        <a:srgbClr val="E64823"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="51C3F9"/>
+        <a:srgbClr val="9C6A6A"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="EE7B08"/>
+        <a:srgbClr val="2998E3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="977B2D"/>
+        <a:srgbClr val="7F723D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Celestial">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +528,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -324,9 +551,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,7 +563,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -358,9 +586,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Celestial">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -369,66 +598,51 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="70000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="82000"/>
+                <a:alpha val="74000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="98000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="88000"/>
+                <a:lumMod val="88000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -437,17 +651,11 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -456,9 +664,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="63500" dist="38100" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="65000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -466,12 +674,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig rig="threePt" dir="tl">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="38100" h="12700"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -483,71 +691,57 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="90000"/>
+                <a:shade val="96000"/>
+                <a:hueMod val="100000"/>
+                <a:satMod val="180000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="96000"/>
+                <a:satMod val="160000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="4740000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Celestial" id="{C4BB2A3D-0E93-4C5F-B0D2-9D3FCE089CC5}" vid="{42E5908D-19A2-46FD-89FA-638B126129EF}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CAC75A-C82F-4BEC-9A98-5A7E892FF22D}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,126 +749,699 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1836ac96-4c60-4714-9f05-99cbcfc0c9f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC423D0E7FDCC84CA54EFB2ED87F1F38" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="983480f75e1bd072c95af783b2179c87">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1836ac96-4c60-4714-9f05-99cbcfc0c9f4" xmlns:ns4="eeec880b-0173-4255-a340-f826d35aa2e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c7caf42bacb1ca3d62255c317358dc6" ns3:_="" ns4:_="">
+    <xsd:import namespace="1836ac96-4c60-4714-9f05-99cbcfc0c9f4"/>
+    <xsd:import namespace="eeec880b-0173-4255-a340-f826d35aa2e5"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1836ac96-4c60-4714-9f05-99cbcfc0c9f4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="14" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="19" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eeec880b-0173-4255-a340-f826d35aa2e5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="17" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0FB51B6-5D27-4876-A5DC-E43F231FB423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EC61F2D-E071-4B66-BB8D-488EB5D7B967}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="eeec880b-0173-4255-a340-f826d35aa2e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1836ac96-4c60-4714-9f05-99cbcfc0c9f4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D63CEBE2-0CB3-4CDA-B99B-F48A9C6F7153}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1836ac96-4c60-4714-9f05-99cbcfc0c9f4"/>
+    <ds:schemaRef ds:uri="eeec880b-0173-4255-a340-f826d35aa2e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2025f/CSER_schedule_25F.xlsx
+++ b/2025f/CSER_schedule_25F.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swithin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swithin/imageR/cserconf.github.io/2025f/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5FBCD6-CA2A-C141-B17E-515578321BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58992DC-7B69-3744-BCB0-7BEA24B79314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="680" windowWidth="28900" windowHeight="18660" xr2:uid="{D630E352-AC92-4690-8407-890D2E3A3108}"/>
+    <workbookView xWindow="1060" yWindow="760" windowWidth="28900" windowHeight="18660" xr2:uid="{D630E352-AC92-4690-8407-890D2E3A3108}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>Time</t>
   </si>
@@ -116,9 +116,6 @@
     <t>14:30 - 15:00</t>
   </si>
   <si>
-    <t>Panel Discussion &amp; Awards</t>
-  </si>
-  <si>
     <t>Panelists: Yuan Tian, Peter Rigby, Fatemeh Fard, Jeremy Bradbury Moderators: Dr. Song Wang, Dr. Gias Uddin</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>Jerin Yasmin</t>
   </si>
   <si>
-    <t>Queen's Univeristy</t>
-  </si>
-  <si>
     <t>Software Dependencies 2.0: An Empirical Study of Reuse and Integration of Pre-Trained Models in Open-Source Projects</t>
   </si>
   <si>
@@ -321,6 +315,21 @@
   </si>
   <si>
     <t>King's College London</t>
+  </si>
+  <si>
+    <t>Queen's University</t>
+  </si>
+  <si>
+    <t>Panel Discussion</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Second Student Centre Hall B</t>
+  </si>
+  <si>
+    <t>Second Student Centre Hall A</t>
   </si>
 </sst>
 </file>
@@ -727,21 +736,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CAC75A-C82F-4BEC-9A98-5A7E892FF22D}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="2" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,33 +758,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -783,16 +796,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -800,16 +816,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -817,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>6</v>
@@ -825,8 +844,11 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -834,16 +856,19 @@
         <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -851,16 +876,19 @@
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -868,16 +896,19 @@
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -885,169 +916,199 @@
         <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1055,94 +1116,108 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="C21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1153,23 +1228,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1836ac96-4c60-4714-9f05-99cbcfc0c9f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC423D0E7FDCC84CA54EFB2ED87F1F38" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="983480f75e1bd072c95af783b2179c87">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1836ac96-4c60-4714-9f05-99cbcfc0c9f4" xmlns:ns4="eeec880b-0173-4255-a340-f826d35aa2e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c7caf42bacb1ca3d62255c317358dc6" ns3:_="" ns4:_="">
     <xsd:import namespace="1836ac96-4c60-4714-9f05-99cbcfc0c9f4"/>
@@ -1402,10 +1460,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1836ac96-4c60-4714-9f05-99cbcfc0c9f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0FB51B6-5D27-4876-A5DC-E43F231FB423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D63CEBE2-0CB3-4CDA-B99B-F48A9C6F7153}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1836ac96-4c60-4714-9f05-99cbcfc0c9f4"/>
+    <ds:schemaRef ds:uri="eeec880b-0173-4255-a340-f826d35aa2e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1428,20 +1514,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D63CEBE2-0CB3-4CDA-B99B-F48A9C6F7153}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0FB51B6-5D27-4876-A5DC-E43F231FB423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1836ac96-4c60-4714-9f05-99cbcfc0c9f4"/>
-    <ds:schemaRef ds:uri="eeec880b-0173-4255-a340-f826d35aa2e5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>